--- a/Datos/PERSONA_AUTORIZADA.xlsx
+++ b/Datos/PERSONA_AUTORIZADA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\UNIVERSIDAD\TERCERO\2_Administración-bases-de-datos\Trabajo-grupo\Datos-bien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Desktop\UNIVERSIDAD\TERCERO\2_Administración-bases-de-datos\Trabajo-grupo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D16DAA-4993-450B-BDED-E7FE40976501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4822831-4661-40D2-8548-A9D1F1E1531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Identificacion</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>FechaFin</t>
+  </si>
+  <si>
+    <t>12341234A</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>C/Almendra, 13</t>
   </si>
 </sst>
 </file>
@@ -87,9 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,7 +386,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +394,7 @@
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
@@ -417,6 +430,26 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>29504</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
     </row>
